--- a/biology/Médecine/Richard_Ladislaus_Heschl/Richard_Ladislaus_Heschl.xlsx
+++ b/biology/Médecine/Richard_Ladislaus_Heschl/Richard_Ladislaus_Heschl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Ladislaus Heschl  (né le 5 juillet 1824 à Welsdorf à l'ouest de Fürstenfeld en Styrie et mort le 26 mai 1881 à Vienne) était un anatomiste autrichien. Il est célèbre pour avoir décrit le gyrus de Heschl, une région du lobe temporal du cerveau impliquée dans l'audition.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1849, il obtient son doctorat en médecine à l'Université de Vienne, où, en 1850, il devient premier assistant de Karel Rokytanský. En 1854, il est nommé professeur d'anatomie à la Faculté de médecine d'Olomouc et, l'année suivante, il devient professeur d'anatomie pathologique à Cracovie. En 1861, il devient professeur à l’École de médecine de Graz puis recteur de l'Université en 1864 et 1865. En 1875, il retourne à l'Université de Vienne.
 </t>
